--- a/docs/画面項目定義書/mo_virtual_network_create.xlsx
+++ b/docs/画面項目定義書/mo_virtual_network_create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1E04A-352B-47EE-AC37-A5D22B00D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76C932-4B44-4672-8093-D8BB3A2237F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>日本工学院</t>
   </si>
@@ -163,13 +163,6 @@
   </si>
   <si>
     <t>IPアドレス/CIDR</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>例:192.168.0.0/16</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1051,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1118,7 +1111,7 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1221,7 +1214,7 @@
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
@@ -1280,9 +1273,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>26</v>
-      </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
